--- a/DragAndDrop/Assets/5.Data/Excel/Stage2/Stage2_Shoot_excel.xlsx
+++ b/DragAndDrop/Assets/5.Data/Excel/Stage2/Stage2_Shoot_excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82106\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\01.junheeStudy\Team_Project\idle\DragAndDrop\Assets\5.Data\Excel\Stage2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB6861C-3783-453C-B3BF-CA75D8044929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3FC4BA-30EB-44CB-A9F8-CB0E026A11C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{63912014-BF4A-4F18-852E-8D74DAEBE5CC}"/>
+    <workbookView xWindow="30690" yWindow="2505" windowWidth="21600" windowHeight="11385" xr2:uid="{63912014-BF4A-4F18-852E-8D74DAEBE5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -431,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2C8B6B-81C9-4B21-8DB2-E0724AABC855}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -466,18 +466,18 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>12.2</v>
+        <v>13.6</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>1.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>13.6</v>
+        <v>14.4</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -488,10 +488,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>14.4</v>
+        <v>16.5</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -499,21 +499,21 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>14.7</v>
+        <v>17.2</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>1.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>16.5</v>
+        <v>19.350000000000001</v>
       </c>
       <c r="B7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -521,10 +521,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>17.2</v>
+        <v>20.05</v>
       </c>
       <c r="B8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -532,21 +532,21 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>17.5</v>
+        <v>22.2</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>1.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>19.350000000000001</v>
+        <v>22.9</v>
       </c>
       <c r="B10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -554,10 +554,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>20.05</v>
+        <v>23.6</v>
       </c>
       <c r="B11" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -565,21 +565,21 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>20.350000000000001</v>
+        <v>24.7</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1">
-        <v>1.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>22.2</v>
+        <v>25.65</v>
       </c>
       <c r="B13" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -587,34 +587,58 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>22.9</v>
+        <v>26.5</v>
       </c>
       <c r="B14" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="A15" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="A16" s="1">
+        <v>29.3</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="A17" s="1">
+        <v>30.4</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="A18" s="1">
+        <v>31.5</v>
+      </c>
+      <c r="B18" s="1">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
@@ -671,28 +695,9 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DragAndDrop/Assets/5.Data/Excel/Stage2/Stage2_Shoot_excel.xlsx
+++ b/DragAndDrop/Assets/5.Data/Excel/Stage2/Stage2_Shoot_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\01.junheeStudy\Team_Project\idle\DragAndDrop\Assets\5.Data\Excel\Stage2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3FC4BA-30EB-44CB-A9F8-CB0E026A11C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34284A03-CB0E-403C-925E-348C8D4D5C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30690" yWindow="2505" windowWidth="21600" windowHeight="11385" xr2:uid="{63912014-BF4A-4F18-852E-8D74DAEBE5CC}"/>
   </bookViews>
@@ -431,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2C8B6B-81C9-4B21-8DB2-E0724AABC855}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -554,7 +554,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -565,10 +565,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>24.7</v>
+        <v>23.5</v>
       </c>
       <c r="B12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -576,10 +576,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>25.65</v>
+        <v>23.6</v>
       </c>
       <c r="B13" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -587,10 +587,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>26.5</v>
+        <v>24.65</v>
       </c>
       <c r="B14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>27.5</v>
+        <v>24.85</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
@@ -609,10 +609,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>29.3</v>
+        <v>25.75</v>
       </c>
       <c r="B16" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -620,10 +620,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>30.4</v>
+        <v>26.5</v>
       </c>
       <c r="B17" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -631,69 +631,243 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
+        <v>27.2</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>27.4</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>27.55</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>27.75</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>28.25</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>28.6</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>28.6</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>28.95</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>29.35</v>
+      </c>
+      <c r="B26" s="1">
+        <v>5</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>30.05</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>30.25</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>30.4</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>30.6</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
         <v>31.5</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B31" s="1">
         <v>4</v>
       </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="B32" s="1">
+        <v>5</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>32.9</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>33.1</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>33.25</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>33.450000000000003</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>34.1</v>
+      </c>
+      <c r="B37" s="1">
+        <v>6</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
